--- a/VS/10-2-23/Data/AUDCHF  Read Me to Improve Code.xlsx
+++ b/VS/10-2-23/Data/AUDCHF  Read Me to Improve Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Techincal Analysis Program\MT5\VS\10-2-23\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B8F2C2-A3C7-4336-BC62-E4C120C25D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11A0555-2904-4779-B582-53417FAC33D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>NO MOVE</t>
   </si>
   <si>
-    <t>WHY NOT NO MOVE IN IT?</t>
-  </si>
-  <si>
     <t>RED CANDLE HIGH HIT TRG WRITE CONDITION FOR IT</t>
   </si>
   <si>
@@ -88,7 +85,10 @@
     <t>RED CANDLE CLSOED BELOW GREEN IN ENTRY CONDITION</t>
   </si>
   <si>
-    <t>Take exit even if high of a cadnle hits ema 8</t>
+    <t>Take exit even if high of a cande hits ema 8</t>
+  </si>
+  <si>
+    <t>WHY NOT NO MOVE IN IT? IN BUY CONDITION</t>
   </si>
 </sst>
 </file>
@@ -98,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,12 +155,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +469,8 @@
   <dimension ref="A1:N503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N463" sqref="N463"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N435" sqref="N435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18295,7 +18306,7 @@
         <v>0.59787660000000009</v>
       </c>
       <c r="L435">
-        <v>0.59712830000000006</v>
+        <v>0.59712829999999995</v>
       </c>
       <c r="M435" t="s">
         <v>13</v>
@@ -18707,7 +18718,7 @@
       <c r="L445">
         <v>0.58926250000000002</v>
       </c>
-      <c r="M445" t="s">
+      <c r="M445" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19166,40 +19177,40 @@
       <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" s="2">
+      <c r="B457" s="4">
         <v>45138.916666666657</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="5">
         <v>0.58550000000000002</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="5">
         <v>1.8</v>
       </c>
-      <c r="E457" t="s">
-        <v>12</v>
-      </c>
-      <c r="F457">
+      <c r="E457" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F457" s="5">
         <v>0.58454859999999997</v>
       </c>
-      <c r="G457" s="2">
+      <c r="G457" s="4">
         <v>45139.104166666657</v>
       </c>
-      <c r="H457">
+      <c r="H457" s="5">
         <v>-9.5140000000004665E-4</v>
       </c>
-      <c r="I457">
+      <c r="I457" s="5">
         <v>-187.13202670800919</v>
       </c>
-      <c r="J457">
+      <c r="J457" s="5">
         <v>0.58454859999999997</v>
       </c>
-      <c r="K457">
+      <c r="K457" s="5">
         <v>0.58740280000000011</v>
       </c>
-      <c r="L457">
+      <c r="L457" s="5">
         <v>0.58645140000000007</v>
       </c>
-      <c r="M457" t="s">
+      <c r="M457" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -19449,7 +19460,7 @@
         <v>13</v>
       </c>
       <c r="N463" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -20682,7 +20693,7 @@
         <v>14</v>
       </c>
       <c r="N493" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.3">
@@ -20767,7 +20778,7 @@
         <v>13</v>
       </c>
       <c r="N495" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.3">
@@ -20811,7 +20822,7 @@
         <v>13</v>
       </c>
       <c r="N496" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.3">
@@ -21019,7 +21030,7 @@
         <v>13</v>
       </c>
       <c r="N501" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.3">
